--- a/model_templates/ark.InVitroBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.InVitroBiospecimenMetadataTemplate.xlsx
@@ -39851,7 +39851,7 @@
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
@@ -39861,79 +39861,79 @@
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="Y1:Y1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z1000">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1000">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:Z1000">
     <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
+      <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
@@ -39941,7 +39941,7 @@
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
@@ -39951,74 +39951,74 @@
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="Y1:Y1000">
     <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="26" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="27" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="1" priority="28" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="30" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="1" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="31" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="32" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="33" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="29" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="30" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="1" priority="31" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="34" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="35" stopIfTrue="1">
       <formula>$H1 = "cell line"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="33" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="35" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA1000">

--- a/model_templates/ark.InVitroBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.InVitroBiospecimenMetadataTemplate.xlsx
@@ -10525,8 +10525,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -10535,8 +10535,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -39846,189 +39846,189 @@
       <c r="AA1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$V1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1:Y1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$V1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$V1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$V1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:Z1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="Z1:Z1000">
     <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1:Y1000">
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1:Y1000">
+    <cfRule type="expression" dxfId="0" priority="26" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="27" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="28" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="29" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="1" priority="30" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="1" priority="31" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="33" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="34" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="35" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="26" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="27" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="28" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="30" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="1" priority="31" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="32" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="33" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="34" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="35" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
+  <conditionalFormatting sqref="AA1:AA1000">
+    <cfRule type="expression" dxfId="0" priority="36" stopIfTrue="1">
+      <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA1000">
-    <cfRule type="expression" dxfId="1" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="37" stopIfTrue="1">
       <formula>$B1 = "AMP AIM"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA1:AA1000">
-    <cfRule type="expression" dxfId="1" priority="37" stopIfTrue="1">
-      <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.InVitroBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.InVitroBiospecimenMetadataTemplate.xlsx
@@ -39846,142 +39846,142 @@
       <c r="AA1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="Y1:Y1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$V1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z1000">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:Z1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+  <conditionalFormatting sqref="Y1:Y1000">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:Z1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "primary cell culture"</formula>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
       <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
+    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
+    <cfRule type="expression" dxfId="0" priority="26" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="27" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="27" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="1" priority="28" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
@@ -39991,44 +39991,44 @@
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="30" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="32" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="33" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="1" priority="31" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
+    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="33" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="34" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="35" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="1" priority="35" stopIfTrue="1">
+      <formula>$H1 = "primary cell culture"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA1000">
     <cfRule type="expression" dxfId="0" priority="36" stopIfTrue="1">
-      <formula>$B1 = "AMP RA/SLE"</formula>
+      <formula>$B1 = "AMP AIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA1000">
     <cfRule type="expression" dxfId="0" priority="37" stopIfTrue="1">
-      <formula>$B1 = "AMP AIM"</formula>
+      <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.InVitroBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.InVitroBiospecimenMetadataTemplate.xlsx
@@ -99,7 +99,7 @@
     </comment>
     <comment authorId="0" ref="Q1">
       <text>
-        <t xml:space="preserve">A standardized, semi-quantitative measure of the degree of inflammatory infiltrate in synovial specimen. This is one of three measures used to derive the Krenn Synovitis Score (KSS) which is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis. If value unknown, use '-1'.</t>
+        <t xml:space="preserve">A standardized, semi-quantitative measure of the degree of inflammatory infiltrate in synovial specimen. This is one of three measures used to derive the Krenn Synovitis Score (KSS) which is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis. If value unknown, enter '-1'.</t>
       </text>
     </comment>
     <comment authorId="0" ref="R1">
@@ -109,7 +109,7 @@
     </comment>
     <comment authorId="0" ref="S1">
       <text>
-        <t xml:space="preserve">A standardized, semi-quantitative measure of stromal cell density of synovial specimen. This is one of three measures used to derive the Krenn Synovitis Score (KSS) which is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis. If value unknown, use '-1'.</t>
+        <t xml:space="preserve">A standardized, semi-quantitative measure of stromal cell density of synovial specimen. This is one of three measures used to derive the Krenn Synovitis Score (KSS) which is a histological scoring system used to quantify inflammation in synovial tissue biopsies, particularly in the context of inflammatory arthritis like rheumatoid arthritis. If value unknown, enter '-1'.</t>
       </text>
     </comment>
     <comment authorId="0" ref="T1">
@@ -10517,8 +10517,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -10527,8 +10527,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -38835,188 +38835,188 @@
       <c r="Z1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q1:Q1000">
+  <conditionalFormatting sqref="X1:X1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$U1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$U1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$U1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$U1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$U1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$U1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$U1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
     <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$U1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1:Y1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1:Y1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "cell line"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
+      <formula>$H1 = "skin swab"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="26" stopIfTrue="1">
       <formula>$H1 = "primary cell culture"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="27" stopIfTrue="1">
       <formula>$H1 = "primary cell culture"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="1" priority="28" stopIfTrue="1">
       <formula>$H1 = "primary cell culture"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="30" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="1" priority="32" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="33" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="1" priority="25" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="26" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="1" priority="27" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="28" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="1" priority="29" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="30" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
-      <formula>$H1 = "cell line"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="32" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="1" priority="33" stopIfTrue="1">
-      <formula>$H1 = "skin swab"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="1" priority="35" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="35" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1000">
-    <cfRule type="expression" dxfId="1" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="36" stopIfTrue="1">
       <formula>$B1 = "AMP AIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1000">
-    <cfRule type="expression" dxfId="1" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="37" stopIfTrue="1">
       <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>
